--- a/avaliacoes02.xlsx
+++ b/avaliacoes02.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Avaliador</t>
   </si>
   <si>
+    <t>Abstenção</t>
+  </si>
+  <si>
     <t>Gravidade</t>
   </si>
   <si>
@@ -55,11 +58,10 @@
     <t>Observação</t>
   </si>
   <si>
-    <t>Leonardo Briza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste
-</t>
+    <t>Usuário Teste</t>
+  </si>
+  <si>
+    <t>Não</t>
   </si>
 </sst>
 </file>
@@ -417,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,46 +465,49 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>3.5</v>
-      </c>
       <c r="D2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E2">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="G2">
         <v>3.5</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
         <v>4.5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3.5</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="K2">
-        <v>3.35</v>
-      </c>
       <c r="L2">
-        <v>3.35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
+        <v>3.8</v>
+      </c>
+      <c r="M2">
+        <v>3.775</v>
       </c>
     </row>
   </sheetData>
